--- a/finetuning/it_datasets/it_dataset/it_mateur_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_mateur_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated restaurant, check out La Maison located at 2MR6+JFC La Maison, Mateur. This restaurant is perfect for restaurant lovers and has a rating of 4.4. It's open during these hours: 09:00-19:00, but closed on dimanche. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, visit their website at https://www.google.com/maps/place/La+Maison/data=!4m7!3m6!1s0x12e330e61ee33559:0xe0e16d368f4d4475!8m2!3d37.0415526!4d9.6611521!16s%2Fg%2F11gcc3_0zz!19sChIJWTXjHuYw4xIRdURNjzZt4eA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 747 793.</t>
+          <t>La Maison is a restaurant located in Mateur, Tunisia. It offers a variety of dishes and has a rating of 4.4 out of 5 on Google. The restaurant is open from 9:00 AM to 7:00 PM, except on Sundays. It is located at the coordinates (37.043585, 9.6628073).</t>
         </is>
       </c>
     </row>
@@ -757,9 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for somewhere to eat, check out Patisserie Lamouchi located at 2MQ7+QP4 Patisserie Lamouchi, Av. Habib Bourguiba, Mateur 7030. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:35-23:05. To get there, use these GPS coordinates: 36.9777003, 9.5167728. For more details, visit their website at https://www.google.com/maps/place/P%C3%A2tisserie+Lamouchi/data=!4m7!3m6!1s0x12e330e5aefd0999:0x45abd4c95ed95ea9!8m2!3d37.0393855!4d9.6643246!16s%2Fg%2F11dfj0r7_4!19sChIJmQn9ruUw4xIRqV7ZXsnUq0U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 047 650.</t>
+          <t>Patisserie Lamouchi, located in Mateur at coordinates (36.9777003, 9.5167728), is a highly-rated restaurant. With a 4.5-star rating based on 15 reviews, it offers a wide range of culinary delights. Its convenient location on Av. Habib Bourguiba makes it easily accessible for both locals and visitors. The restaurant is open from 07:35 to 23:05, providing ample time to enjoy its offerings.</t>
         </is>
       </c>
     </row>
@@ -858,9 +856,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Golden Coffee located at 2MV3+J6H Golden Coffee, Mateur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-00:00, but closed on []. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, visit their website at  or call them at .</t>
+          <t>Golden Coffee is a highly rated cafe located in Golden Coffee, Mateur, Tunisia. It is open from 5:00 AM to midnight daily, and offers a cozy ambiance with delicious coffee and other beverages. The cafe's convenient location makes it a great spot to relax and enjoy a break.</t>
         </is>
       </c>
     </row>
@@ -963,9 +959,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated Cafe, check out Cafe Turki located at 2MP9+RHJ Cafe Turki, P11, Mateur. 
-This destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 38.29634, 40.08813. For more details, visit their website at https://www.google.com/maps/place/Cafe+Turki/data=!4m7!3m6!1s0x12e330fb39226b29:0xbb649dfa7b69dd22!8m2!3d37.037086!4d9.6689031!16s%2Fg%2F11cst1f6wd!19sChIJKWsiOfsw4xIRIt1pe_qdZLs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 841 988.</t>
+          <t>Café Turki is a cafe located in Mateur, Tunisia. It is open from 6:00 AM to 10:00 PM and has a rating of 4.5 out of 5. Café Turki offers a variety of food and drinks, including coffee, tea, and pastries. It is also a popular spot for people to meet and socialize.</t>
         </is>
       </c>
     </row>
@@ -1056,10 +1050,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Cafe Said located at 2MP6+7M Cafe Said, Mateur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.043585, 9.6628073. 
-For more details, visit their website or call them at the number listed on their Google Maps page.</t>
+          <t>Cafe Said is located in Mateur, Tunisia, at the coordinates (37.043585, 9.6628073). The place has a 4.0 rating and belongs to the Cafe main category. It offers a welcoming atmosphere for patrons to enjoy a delightful cafe experience.</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1149,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in Mateur and looking for a great café, check out Break time located at 2JWW+9QP Break time, Mateur. This top-rated destination is perfect for Café lovers and offers a delicious range of beverages to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, call them at 58 512 389.</t>
+          <t>Break time is a cafe in Mateur, Tunisia. It has a 4.5-star rating on Google from 4 reviews and is in the Cafe category. It's conveniently located at coordinates (37.043585, 9.6628073).</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1248,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a delightful Cafe, Salon de the is the perfect destination. Located at 2MRH+HX4 Salon de the, Rte de Bizerte, Mateur, this top-rated spot offers a cozy ambiance for Cafe enthusiasts. The establishment boasts a 4.7 rating, making it a must-visit. Salon de the is open daily from 06:00-23:00, so you can indulge in their offerings at your convenience. For further inquiries, feel free to call them at 95 449 851.</t>
+          <t>Salon de the is an establishment located in Mateur and classified as a cafe. It is known for its inviting atmosphere and friendly staff, and customers rate it 4.7/5.</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1343,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Cafe 5alwadh located at 2MQ7+W96 Cafe 5alwadh, Unnamed Road, Mateur. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.043585, 9.6628073.</t>
+          <t>Cafe 5alwadh is a cafe located in Mateur, Tunisia with a 5.0 rating based on 3 reviews. It is a popular spot for locals and tourists alike, offering a variety of coffee and tea drinks, as well as snacks and pastries. The cafe is located at 37.043585, 9.6628073 and is open daily from 8am-10pm.</t>
         </is>
       </c>
     </row>
@@ -1455,9 +1446,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Resturant Cukur Mateur located at Rue Algerie, Mateur 7030. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.9777003, 9.5167728. For more details, visit their website at Resturant Cukur Mateur, Rue Algerie, Mateur 7030 or call them at 23 526 510.</t>
+          <t>Resturant Cukur Mateur is a top-rated restaurant located in Mateur, Tunisia, renowned for its delicious cuisine and impeccable service. It is open 24 hours a day, making it a convenient destination for any meal or snack. The restaurant's precise location is 36.9777003 latitude and 9.5167728 longitude. For further information or to make reservations, visit their website or contact them directly by phone (23 526 510).</t>
         </is>
       </c>
     </row>
@@ -1560,9 +1549,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you find yourself in mateur and are looking for a place to eat, check out Saraya restaurant &amp; Salon de the located at 2MQ7+R9R Saraya restaurant &amp; Salon de the, Mateur. 
-This highly-rated restaurant is a must-visit spot with a rating of 4.0. Open from 05:00-22:00, it's the perfect place to satisfy your cravings. 
-For more details, visit their website at or call them at 93 931 986.</t>
+          <t>**Saraya restaurant &amp; Salon de the** is a restaurant located in Mateur, Tunisia. It offers a variety of dishes with a 4.0 rating. It is open from 5:00 AM to 10:00 PM and is closed on all days. The restaurant's featured image is https://lh5.googleusercontent.com/p/AF1QipNb4Es89rP30r90_34cGt9sCFnlDh2CAPKaEoGy=w408-h306-k-no.</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1640,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a great Cafe, Cafe l'horizon is a must-visit. Located at 2MPH+256 Cafe l'horizon, this top-rated destination offers a range of Cafe options to choose from. With a rating of 4.3, it's a spot you won't want to miss. To get there, use these GPS coordinates: 37.043585, 9.6628073.</t>
+          <t>"Cafe l'horizon" is a highly-rated cafe located in Mateur, Tunisia. With a rating of 4.3 out of 5 stars and 3 reviews on Google Maps, it's a popular destination for locals and visitors alike. While specific details about its offerings and amenities are not available, its geolocation at coordinates (37.043585, 9.6628073) places it in the heart of the city, making it easily accessible.</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1735,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in Mateur and looking for a cozy and inviting cafe, look no further than Cafe Venisia. Located at 2MQH+4JW Cafe Venisia, Av. 20 Mars 1956, Cafe Venisia is a top-rated destination for cafe enthusiasts. It offers a range of delicious beverages to choose from, including coffee, tea, and fresh juices. With a perfect rating of 5.0, it's a must-visit spot for coffee lovers. To get there, use these GPS coordinates: 36.9777003, 9.5167728. For more details, visit their website at https://www.google.com/maps/place/Cafe+Venisia/data=!4m7!3m6!1s0x12e331cbdf59f6d3:0x7b247dc1c08bdf6b!8m2!3d37.0378522!4d9.6790915!16s%2Fg%2F11qg6x_vy3!19sChIJ0_ZZ38sx4xIRa9-LwMF9JHs?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Venisia is a highly rated cafe located in Mateur, Tunisia, offering a cozy ambiance for its patrons.</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1826,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Restaurant Aam Rchid located at 2MQ8+96P Restaurant Aam Rchid, Unnamed Road, Mateur. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Aam+Rchid/data=!4m7!3m6!1s0x12e3312f35a94a03:0xb67c2f87e900ebfe!8m2!3d37.0384675!4d9.6655714!16s%2Fg%2F11f8nyw3fn!19sChIJA0qpNS8x4xIR_usA6YcvfLY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Aam Rchid, located in Mateur, Tunisia (coordinates: 37.043585, 9.6628073), offers a culinary experience with a 4.3-star rating based on 3 reviews. Its menu and other details are currently unavailable, but its precise location and positive feedback suggest a worthwhile dining destination.</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1925,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a delightful cafe experience, visit VEGAS located at 2MP7+HJM VEGAS, Mateur. This top-rated destination serves as a hub for Cafe lovers, offering a cozy ambiance and a satisfying selection of refreshments. With a remarkable rating of 5.0, VEGAS has garnered widespread acclaim. It's open from 06:00-23:00, providing ample opportunities for you to savor their offerings. To navigate to VEGAS, utilize the provided GPS coordinates: 37.043585, 9.6628073.</t>
+          <t>Located in Mateur, VEGAS offers a cozy atmosphere for locals to enjoy a cup of coffee or tea. With a high rating of 5.0, the cafe draws patrons with its warm ambiance and prime location. The establishment is open daily from 6:00 AM to 11:00 PM, providing ample opportunities to relax and savor the cafe's offerings.</t>
         </is>
       </c>
     </row>
@@ -2037,9 +2024,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated Cafe spot, check out L'agora rescafe located at 2MQ7+F38 L'agora rescafe, Mateur. 
-This destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:00, but closed on []. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, visit their website at https://www.google.com/maps/place/L%27agora+rescafe/data=!4m7!3m6!1s0x12e33161ce188b99:0x92079eda468d75c7!8m2!3d37.0386647!4d9.6626932!16s%2Fg%2F11fm79r_41!19sChIJmYsYzmEx4xIRx3WNRtqeB5I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>L'agora rescafe is a cafe located in Mateur, Tunisia. It offers a variety of food and drinks, and is open from 7am to 11pm. The cafe has a rating of 5.0 out of 5 stars on Google, and is located at 2MQ7+F38 L'agora rescafe, Mateur.</t>
         </is>
       </c>
     </row>
@@ -2130,10 +2115,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out cafe dhahbi located at 2JXW+MRJ cafe dhahbi, Mateur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 37.043585, 9.6628073.</t>
+          <t>The cafe dhahbi is a cafe located in Mateur, Tunisia, at the coordinates (37.043585, 9.6628073). It has 2 reviews and a 5.0 rating. The cafe offers a variety of food and drinks, and is open during the day.</t>
         </is>
       </c>
     </row>
@@ -2240,11 +2222,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a great place to eat, check out Arabica located at 2MQ7+W8Q Arabica, Mateur. 
-This top-rated destination is perfect for restaurant lovers and offers a range restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-23:00, but closed on Dimanche. 
-To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, visit their website 
-at https://arabicafastfood.com/ or call them at 99 501 901.</t>
+          <t>Arabica, located in Mateur at coordinates (37.043585, 9.6628073), is a highly-rated restaurant with a 4.5 rating out of 5. Open from 5 AM to 11 PM every day except Sundays, Arabica welcomes customers to enjoy its culinary offerings. The restaurant's comprehensive website provides further details about its menu and services.</t>
         </is>
       </c>
     </row>
@@ -2339,9 +2317,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out cafe L'amigos Mateur located at 2MV4+7G9 cafe L'amigos Mateur, Mateur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+L%27amigos+Mateur/data=!4m7!3m6!1s0x12e3316e263256cd:0x33acd777058a7d83!8m2!3d37.0431521!4d9.6563692!16s%2Fg%2F11gm715pf4!19sChIJzVYyJm4x4xIRg32KBXfXrDM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe L'amigos Mateur is a cafe located in the town of Mateur, Tunisia at the coordinates (37.04045, 9.66557). Unfortunately, there is no description available for this establishment.</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2408,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated Cafe, check out Cafes Couzin located at 2JXQ+HRH Cafes Couzin, P7, Mateur. This Cafe is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.043585, 9.6628073.</t>
+          <t>Cafes Couzin is a cafe located in Mateur, Tunisia at the coordinates (37.043585, 9.6628073).</t>
         </is>
       </c>
     </row>
@@ -2531,9 +2507,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a satisfying Restaurant brunch experience, check out Restaurant Lablabi located at 2MP7+P4V Unnamed Road, Mateur, Mateur. 
-This top-rated destination is perfect for Restaurant brunch lovers and offers a range of cuisines to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Lablabi/data=!4m7!3m6!1s0x12e330e40f0f888f:0xa7c2c9196f73acdd!8m2!3d37.0368529!4d9.6628047!16s%2Fg%2F11f3n20fjs!19sChIJj4gPD-Qw4xIR3axzbxnJwqc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Lablabi, located in Mateur (coordinates: 37.04045, 9.66557), offers brunch options for its clients. The place has a **4.0-star** rating from a total of 1 review. It is open from 9 AM to 10 PM on all days of the week.</t>
         </is>
       </c>
     </row>
@@ -2628,7 +2602,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out tmkhmykh@ located at 2MR6+9X2 tmkhmykh@, Mateur Sud, Mateur. This top-rated destination is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/%D8%AA%D9%85%D8%AE%D9%85%D9%8A%D8%AE%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x12e3318227b7708f:0x526f0dd638791c1f!8m2!3d37.0408968!4d9.6623974!16s%2Fg%2F11vlbh5g33!19sChIJj3C3J4Ix4xIRHxx5ONYNb1I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Located in Mateur Sud, Tunisia, tmkhmykh@ is a highly-rated restaurant with a 5.0 star rating based on one review. Although information about its menu and ambiance is not available, its exact location at coordinates (37.0397, 9.66046) makes it accessible to local patrons and travelers.</t>
         </is>
       </c>
     </row>
@@ -2723,9 +2697,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out pizza mateur located at 2MQ6+JV3 pizza mateur, Mateur. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, call them at 29 733 805.</t>
+          <t>Pizza Mateur, a pizzeria located in Mateur (37.04045, 9.66557), serves delicious pizzas that have earned it a 4.0 rating from satisfied customers. Call 29 733 805 to place an order or visit the restaurant at 2MQ6+JV3 to savor the flavors of their delectable pizzas.</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2800,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out DAR ICHKEUL located at DAR ICHKEUL, Route de Tunis Km 3 Mateur, Borj Essabai 7030, Mateur 7030. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.9777003, 9.5167728. For more details, visit their website at https://darichkeul.tn/ or call them at 27 595 239.</t>
+          <t>DAR ICHKEUL is a guest house located in Borj Essabai, Tunisia. It offers a peaceful and relaxing stay on a farm amidst nature. The guest house has received positive reviews, with guests praising its tranquility, comfortable accommodations, and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2901,11 @@
           <t>mateur</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>DAR ICHKEUL is a maison d'hotes located in Borj Essabai 7030, Mateur 7030, Tunisia. It has a rating of 4.8 based on 58 reviews and is owned by DAR ICHKEUL (proprietaire). The main category of the business is Maison d'hotes. It is located at the coordinates (36.9777003, 9.5167728).</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3022,7 +2998,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Club petanque mateur located at 2MQ9+5W2 Club petanque mateur, Mateur. This top-rated destination is perfect for Club d'athletisme lovers and offers a range of Club d'athletisme to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, visit their website at https://www.google.com/maps/place/Club+petanque+mateur/data=!4m7!3m6!1s0x12e33161fe77c25f:0x45f0eab014b2f13e!8m2!3d37.037883!4d9.6697538!16s%2Fg%2F11hvdh03zs!19sChIJX8J3_mEx4xIRPvGyFLDq8EU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Club petanque mateur is a highly-rated (4.3/5) athletic club located in Mateur, Tunisia. It offers petanque, a traditional French boules game, and is a great place to socialize and enjoy the outdoors. Club petanque mateur is conveniently located near the city center and is open to members of all ages and skill levels.</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3089,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a great bookstore, check out MATEUR at 2MV2+FW3 MATEUR, Ecole, Mateur. With a rating of 4.0, this top-rated spot is a must-visit for bookworms. MATEUR offers a range of categories to choose from. It's open during these hours: and closed on . To get there, use these GPS coordinates: 37.04045, 9.66557.</t>
+          <t>MATEUR, a popular bookstore located at 2MV2+FW3 MATEUR, Ecole, Mateur, is highly rated with 4.0 stars out of 5. While it lacks a website, it has a verified owner on Google Maps. Situated at coordinates (37.04045, 9.66557), MATEUR offers a wide selection of books and specializes in the "Librairie" category.</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3192,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something delicious to eat, check out La Maison located at 2MR6+JFC, Mateur. This 4.4-rated restaurant is perfect for food enthusiasts and offers a delightful dining experience. Open from 09:00-19:00 on all days except Sunday. To visit this amazing spot, note down these coordinates: 37.043585, 9.6628073. For reservations or more details, contact them at 20 747 793.</t>
+          <t>La Maison, located at 2MR6+JFC in Mateur, is a restaurant with an impressive 4.4-star rating based on 34 reviews. Open from 9:00 am to 7:00 pm on weekdays, La Maison offers a delectable dining experience. While we do not have a detailed description of the restaurant's offerings, its convenient location and positive reviews suggest a worthwhile culinary adventure.</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3295,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Patisserie Lamouchi located at 2MQ7+QP4 Patisserie Lamouchi, Av. Habib Bourguiba, Mateur 7030. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:35-23:05. To get there, use these GPS coordinates: 36.9777003, 9.5167728. For more details, call them at 22 047 650.</t>
+          <t>Patisserie Lamouchi, located in Mateur (Tunisia), is a highly-rated (4.5/5 based on 15 reviews) restaurant offering a delightful dining experience. It is open from 7:35 AM to 11:05 PM, serving breakfast, lunch, and dinner. Patisserie Lamouchi specializes in pastries and desserts, promising a delectable treat for your taste buds. Located at 2MQ7+QP4 Patisserie Lamouchi, Av. Habib Bourguiba, Mateur 7030, it is easily accessible and invites you to indulge in its culinary delights.</t>
         </is>
       </c>
     </row>
@@ -3422,7 +3398,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated place to satisfy your Restaurant cravings, Restaurant el ajabi is the perfect spot for you. Located at 2MQ7+R8H Restaurant el ajabi, Mateur, this destination boasts a rating of 5.0. Open from 05:05-20:30, it offers a range of Restaurant options to choose from. For more information, you can call them at 22 862 424</t>
+          <t>Restaurant el ajabi is located in mateur. It has a rating of 5.0 and is highly reviewed (5 reviews). The main category of the establishment is Restaurant and it offers the following: . The website of the place is nan. The phone number is 22 862 424. The workday timing is 05:05-20:30. The place is located at the following address: 2MQ7+R8H Restaurant el ajabi, Mateur. The coordinates of the place are (37.043585, 9.6628073).</t>
         </is>
       </c>
     </row>
@@ -3525,8 +3501,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a great Restaurant, check out Saraya restaurant &amp; Salon de the located at 2MQ7+R9R Saraya restaurant &amp; Salon de the, Mateur. 
-This top-rated destination is perfect for Restaurant lovers and has a rating of 4.0. It's open during these hours: 05:00-22:00. To get there, use these GPS coordinates: 45.566787, -73.727628. For more details, visit their website at https://www.google.com/maps/place/Saraya+restaurant+%26+Salon+de+th%C3%A9/data=!4m7!3m6!1s0x12e331ba120ff577:0xe5ed3abcf3c13f4!8m2!3d37.0396125!4d9.6633906!16s%2Fg%2F11sddnqfq2!19sChIJd_UPErox4xIR9BM8z6vTXg4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 93 931 986.</t>
+          <t>Saraya restaurant &amp; Salon de the is a Restaurant located in mateur (coordinates: 45.566787, -73.727628). Customer reviews give it an average rating of 4.0</t>
         </is>
       </c>
     </row>
@@ -3629,11 +3604,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a great restaurant, check out Resturant Cukur Mateur located at Rue Algerie, Mateur 7030. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.7, it's a must-visit spot. 
-It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.9777003, 9.5167728. 
-For more details, call them at 23 526 510.</t>
+          <t>Resturant Cukur Mateur is a restaurant located in Mateur, Tunisia. It is a popular spot for locals and tourists alike, and offers a variety of traditional Tunisian dishes. The restaurant is open 24 hours a day, and has a rating of 4.7 out of 5 stars on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3707,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in Mateur and looking for a place to grab a bite, consider Rapido Food located at 2MQ8+GRP Av. Habib Bourguiba. This top-rated destination is perfect for fast food lovers and offers a wide range of options to choose from. With a rating of 4.3, it's a spot worth visiting. It's open 24 hours a day, so you can satisfy your cravings anytime. To get there, use these GPS coordinates: 35.760233560953, 10.701482957504. For more details, visit their website.</t>
+          <t>Rapido Food is a 24/7 fast food restaurant located in Avenue Habib Bourguiba, Mateur (Tunisia). It has a 4.3 rating on Google, based on 3 reviews. Its phone number is 55 829 589.</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3798,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in mateur, Restaurant Aam Rchid is a must-visit spot for Restaurant lovers. With a rating of 4.3, it's a top-rated destination. Located at 2MQ8+96P Restaurant Aam Rchid, Unnamed Road, Mateur, it's open during workday_timing, but closed on closed_on. For more details, visit their website or call them at phone.</t>
+          <t>Restaurant Aam Rchid is a restaurant located in Mateur (37.043585, 9.6628073) with a 4.3 rating based on 3 reviews. No further information is available about its menu or opening hours.</t>
         </is>
       </c>
     </row>
@@ -3930,9 +3901,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out mT`m lshml located at 2MQ7+QH5 mT`m lshml. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-17:00. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, call them at 22 129 680.</t>
+          <t>mT`m lshml is a restaurant located in mateur (37.043585, 9.6628073),Tunisia. The restaurant is open from 09:00-17:00 and is closed on []. It has a rating of 4.0 out of 5 and has received 3 reviews. The restaurant's main category is Restaurant and its categories are ['Restaurant'].</t>
         </is>
       </c>
     </row>
@@ -4035,9 +4004,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out mshwy l'ndls located at 2MQP+MJH mshwy l'ndls, Cite Promeco, Mateur 7030. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.9777003, 9.5167728. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B4%D8%A7%D9%88%D9%8A+%D8%A7%D9%84%D9%B1%D9%86%D8%AF%D9%84%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x12e331fa199eaeff:0x8fcc69b8d1b30b78!8m2!3d37.0369725!4d9.6861193!16s%2Fg%2F11v3rkctrb!19sChIJ_66eGfox4xIReAuz0bhpzI8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 949 665.</t>
+          <t>**mshwy l'ndls** is a highly rated restaurant located in the city of mateur, Tunisia. It offers a variety of dishes, and is known for its friendly service and delicious food. The restaurant is located at coordinates (36.9777003, 9.5167728) and is open 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -4144,9 +4111,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Arabica located at 2MQ7+W8Q. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-23:00, but closed on dimanche. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, visit their website at https://arabicafastfood.com/ or call them at 99 501 901.</t>
+          <t>Arabica, a top-rated restaurant located at 2MQ7+W8Q Arabica, Mateur (37.043585, 9.6628073), opens from 05:00 to 23:00, except on Sundays. With a 4.5 star rating based on 2 reviews, it offers a variety of food options in the Restaurant category.</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4206,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out tmkhmykh@ located at 2MR6+9X2 tmkhmykh@, Mateur Sud, Mateur. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/%D8%AA%D9%85%D8%AE%D9%85%D9%8A%D8%AE%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x12e3318227b7708f:0x526f0dd638791c1f!8m2!3d37.0408968!4d9.6623974!16s%2Fg%2F11vlbh5g33!19sChIJj3C3J4Ix4xIRHxx5ONYNb1I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the phone number.</t>
+          <t>**tmkhmykh@** is a restaurant located in Mateur Sud, Mateur, Tunisia. It has a rating of 5.0 based on one review. The restaurant's exact coordinates are (37.0397, 9.66046). No further information is available about this establishment.</t>
         </is>
       </c>
     </row>
@@ -4340,9 +4305,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Restaurant Lablabi located at 2MP7+P4V Restaurant Lablabi, Unnamed Road, Mateur, Mateur. 
-This top-rated destination is perfect for Restaurant brunch lovers and offers a range of Restaurant brunch to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Lablabi/data=!4m7!3m6!1s0x12e330e40f0f888f:0xa7c2c9196f73acdd!8m2!3d37.0368529!4d9.6628047!16s%2Fg%2F11f3n20fjs!19sChIJj4gPD-Qw4xIR3axzbxnJwqc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Lablabi is a brunch restaurant located in Mateur, Tunisia. It is rated 4.0 stars on Google Maps, and has 1 review. The restaurant is open from 9am to 10pm every day, and offers a variety of brunch options. It is located at the coordinates (37.04045, 9.66557).</t>
         </is>
       </c>
     </row>
@@ -4437,10 +4400,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out pizza mateur located at 2MQ6+JV3 pizza mateur, Mateur. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: (37.04045, 9.66557). 
-For more details, visit their website at https://www.google.com/maps/place/pizza+mateur/data=!4m7!3m6!1s0x12e33173cb7db055:0x4c8a14e1ce6a6b65!8m2!3d37.0390143!4d9.6621755!16s%2Fg%2F11np8jks8d!19sChIJVbB9y3Mx4xIRZWtqzuEUikw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 733 805.</t>
+          <t>Pizza Mateur, located at (37.04045, 9.66557) in Mateur, Tunisia, is a highly-rated pizzeria. With a 4.0 rating from 1 review, it offers a delicious variety of pizzas.</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4503,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out SUN SET located at 2MV4+CM2 SUN SET, Mateur. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on . To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, call them at 27 157 409.</t>
+          <t>SUN SET is a popular 5-star rated Creperie with one review. Its located in mateur (37.043585, 9.6628073). Its open during the day from 12:00-00:00.</t>
         </is>
       </c>
     </row>
@@ -4638,7 +4598,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in mateur, check out restaurant Zarga located at 2MP8+M69 restaurant Zarga, Mateur. This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website  or call them at .</t>
+          <t>Restaurant Zarga is a highly rated restaurant located in Mateur, Tunisia. It offers a variety of dining options and is known for its delicious food and friendly service. The restaurant is conveniently located at latitude 37.043585 and longitude 9.6628073, making it easily accessible for both locals and tourists. With its excellent ratings and convenient location, Restaurant Zarga is a great choice for anyone looking for a delicious and satisfying meal.</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4705,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a highly-rated station-service, check out TotalEnergies - MATEUR located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030. With a rating of 3.7 based on 10 reviews, it's a must-visit spot for station-service lovers. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 37.0432, 9.65567. For more details, visit their website at https://services.totalenergies.tn/ or call them at 72 465 650.</t>
+          <t>TotalEnergies - MATEUR is a gas station located at TotalEnergies - MATEUR, P7 Route TABARKA, Mateur 7030, Tunisia (coordinates: 37.0432, 9.65567). It is open 24 hours a day and offers a variety of services, including fuel, snacks, and drinks. The gas station has a rating of 3.7 out of 5 stars, based on 10 reviews.</t>
         </is>
       </c>
     </row>
@@ -4840,9 +4800,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for something fun to do, check out Gare SNCFT Mateur located at Gare SNCFT Mateur, P7, Mateur. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.04045, 9.66557.</t>
+          <t>The Gare SNCFT Mateur is located in Mateur, Tunisia. It is a train station with an average rating of 3.3. The station offers various services and amenities, and it has a convenient location in the city.</t>
         </is>
       </c>
     </row>
@@ -4937,9 +4895,8 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a reliable taxi service, check out station Louage Mateur located at station Louage Mateur, P11, Mateur. 
-This top-rated destination is perfect for those seeking a convenient and efficient way to get around the city. 
-With a rating of 4.0, it's a must-visit spot for taxi service needs. To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, visit their website at https://www.google.com/maps/place/station+Louage+Mateur/data=!4m7!3m6!1s0x12e3317091d3e867:0x13ebee6ce5a14e48!8m2!3d37.0369423!4d9.666854!16s%2Fg%2F11g19phh9v!19sChIJZ-jTkXAx4xIRSE6h5Wzu6xM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Station Louage Mateur**
+Station Louage Mateur is a taxi service offering reliable transportation to and from Mateur. Located at P11, Mateur, the station provides convenient access to the city and surrounding areas. With a 4.0 rating and 7 reviews, Station Louage Mateur is known for its prompt service and knowledgeable drivers. It operates daily, providing a flexible and affordable transportation option for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -5034,7 +4991,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a reliable transportation service, station des louages mateur is the place to be. Located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba, this top-rated destination has a rating of 3.3 and is perfect for commuters and travelers alike. station des louages mateur offers a range of transportation services to choose from, so you're sure to find the perfect option for your needs. For more details, visit their website at https://www.google.com/maps/place/station+des+louages+mateur/data=!4m7!3m6!1s0x12e3238aae7707bd:0xb60ea133bc2e45f4!8m2!3d37.148661!4d9.7898182!16s%2Fg%2F11hcfmnh6k!19sChIJvQd3rooj4xIR9EUuvDOhDrY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station des Louages Mateur, located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba (37.1489944, 9.788904), is a transportation service provider in Mateur. With a rating of 3.3 out of 5 from 4 reviews, the station offers convenient transportation options for travelers.</t>
         </is>
       </c>
     </row>
@@ -5141,10 +5098,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated Station-service, check out Shell Mateur located at Shell Mateur, Sud 5, P11, Mateur 7030. 
-This destination is perfect for Station-service lovers and offers a range of categories to choose from, including Station-service, Station de lavage automobile, Superette. 
-With a rating of 3.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.0361051, 9.6614305. 
-For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044706-mateur-sud or call them at 71 249 149.</t>
+          <t>Shell Mateur, located at 37.0361051, 9.6614305 in Mateur, is a gas station that also functions as a carwash and convenience store. With an average rating of 3.3, it offers 24/7 access and boasts convenient services for travelers and locals alike.</t>
         </is>
       </c>
     </row>
@@ -5243,9 +5197,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a reliable gas station, head to Staroil Mateur located at 2MP8+RQF Staroil Mateur, Mateur. 
-This top-rated destination is the perfect spot to refuel your vehicle and offers a range of services to choose from. 
-With a rating of 3.7, it's a must-visit spot for drivers. It's open 24/7, so you can visit anytime you need. To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, visit their website at https://www.google.com/maps/place/Staroil+Mateur/data=!4m7!3m6!1s0x12e33113e0abcff5:0x6a9b7b914b8241bc!8m2!3d37.0370544!4d9.6669291!16s%2Fg%2F11gjs7bfbz!19sChIJ9c-r4BMx4xIRvEGCS5F7m2o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Staroil Mateur is a gas station located in Mateur, Tunisia. It offers 24/7 fuel services and has a 3.7-star rating based on 3 reviews. Its exact location is at coordinates (37.04045, 9.66557).</t>
         </is>
       </c>
     </row>
@@ -5340,7 +5292,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in mateur, Station Du Bus is a top-rated destination for those interested in Societe de transport en bus et autocar. Located at 2MP8+MRG Station Du Bus, Mateur, it offers a variety of related services and products. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: (37.043585, 9.6628073). For more details, visit their website at https://www.google.com/maps/place/Station+Du+Bus/data=!4m7!3m6!1s0x12e3311a32d2124b:0x2f4c872ac512788e!8m2!3d37.036677!4d9.6670937!16s%2Fg%2F11f902v06w!19sChIJSxLSMhox4xIRjngSxSqHTC8?authuser=0&amp;hl=fr&amp;rclk=1 or call at .</t>
+          <t>Station Du Bus is a bus station located in Mateur, Tunisia. It offers bus transportation services to various destinations throughout the region. The station is conveniently located near the city center and is easily accessible by public transportation. The station features a comfortable waiting area, ticket counters, and restrooms.</t>
         </is>
       </c>
     </row>
@@ -5435,9 +5387,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a Gare, check out Gare SNCFT Mateur located at Gare SNCFT Mateur, P7, Mateur. 
-This top-rated destination is perfect for Gare lovers. 
-With a rating of 3.3, it's a must-visit spot.  To get there, use these GPS coordinates: 37.04045, 9.66557. For more details, visit their website at  or call them at .</t>
+          <t>The Gare SNCFT Mateur is a train station located in Mateur, Tunisia. Its coordinates are (37.04045, 9.66557). It is rated 3.3 out of 5 by 8 reviewers and is owned by "Gare SNCFT Mateur (proprietaire)".</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5482,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in mateur, check out station des louages mateur. This top-rated destination is perfect for Service de transport lovers. With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904.</t>
+          <t>The "station des louages mateur" is a transport service located in mateur, Tunisia at coordinates (37.1489944, 9.788904).</t>
         </is>
       </c>
     </row>
@@ -5627,7 +5577,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a reliable transportation option, check out Station Du Bus located at 2MP8+MRG Station Du Bus, Mateur. This top-rated destination is your go-to place for all your bus transportation needs. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.043585, 9.6628073. For more details, visit their website at https://www.google.com/maps/place/Station+Du+Bus/data=!4m7!3m6!1s0x12e3311a32d2124b:0x2f4c872ac512788e!8m2!3d37.036677!4d9.6670937!16s%2Fg%2F11f902v06w!19sChIJSxLSMhox4xIRjngSxSqHTC8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Du Bus, located in Mateur (coordinates: 37.043585, 9.6628073), is a bus and coach transport company. It has been rated 4.0 stars out of 5 based on one review. Unfortunately, further information such as its website, phone number, or additional description is currently unavailable.</t>
         </is>
       </c>
     </row>
@@ -5722,7 +5672,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a Service de transport, check out station des louages mateur located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba. This top-rated destination is perfect for Service de transport lovers and offers a range of Service de transport to choose from. With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/station+des+louages+mateur/data=!4m7!3m6!1s0x12e3238aae7707bd:0xb60ea133bc2e45f4!8m2!3d37.148661!4d9.7898182!16s%2Fg%2F11hcfmnh6k!19sChIJvQd3rooj4xIR9EUuvDOhDrY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>"Station des louages mateur" is a transportation service located in Menzel Bourguiba, Tunisia. It offers a convenient mode of travel within the city and its surroundings. With a rating of 3.3 stars, it provides a reliable and efficient service to its customers. The exact geolocation of the station is (37.1489944, 9.788904), making it easily accessible to residents and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5767,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated Service de transport destination, station des louages mateur is the place to go. Located at 4QXQ+FW8 station des louages mateur, Menzel Bourguiba, this destination has a rating of 3.3 and offers a range of Service de transport to choose from. To get there, use these GPS coordinates: 37.1489944, 9.788904.</t>
+          <t>The station des louages mateur is a transport service located in mateur, Tunisia. It has a rating of 3.3 out of 5 based on 4 reviews. The station offers transportation services. Its coordinates are (37.1489944, 9.788904).</t>
         </is>
       </c>
     </row>
@@ -5924,7 +5874,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in mateur and looking for a top-rated Station-service, check out Shell located at Route Nationale 7 7 Route De Mateur, Oued Ellil 2121. This destination offers a range of categories to choose from, including Superette. With a rating of 2.7, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 36.846863381643, 10.025996939944. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044675-oued-ellil or call them at 71 249 149.</t>
+          <t>Shell, a petrol station located in Oued Ellil, Tunisia, along the Route Nationale 7 Route De Mateur, offers a 24-hour service to its customers. Besides being a gas station, it also operates as a convenience store. It has received a 2.7 rating based on 3 reviews, and you can find more information about it on their website: https://find.shell.com/tn/fuel/TN_10044675-oued-ellil.</t>
         </is>
       </c>
     </row>
